--- a/7-Gráficos/30. Gráfico de Controle Mínimos e Máximos - Material(1).xlsx
+++ b/7-Gráficos/30. Gráfico de Controle Mínimos e Máximos - Material(1).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\7-Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7AF396-8FE2-4518-B933-6EE9F7F0BD0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672ADE9E-F504-4EFD-A924-037E6DAE757C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C43EEEF4-D6CC-4C7C-A732-BF3BE2D1F75F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C43EEEF4-D6CC-4C7C-A732-BF3BE2D1F75F}"/>
   </bookViews>
   <sheets>
     <sheet name="GraficoControle" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,12 +30,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Data</t>
   </si>
@@ -59,6 +63,18 @@
   <si>
     <t>LimiteMáx</t>
   </si>
+  <si>
+    <t>Mínimo</t>
+  </si>
+  <si>
+    <t>Máximo</t>
+  </si>
+  <si>
+    <t>LimMin</t>
+  </si>
+  <si>
+    <t>LimMax</t>
+  </si>
 </sst>
 </file>
 
@@ -73,7 +89,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +108,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -105,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -135,6 +163,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -448,40 +482,40 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,7 +763,7 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3241</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1030,7 +1064,918 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estoque</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:tailEnd w="sm" len="sm"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7772</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1047-423F-83AA-F5D4EEF5AA62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mínimo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1047-423F-83AA-F5D4EEF5AA62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Máximo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="93FFC4"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1047-423F-83AA-F5D4EEF5AA62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LimMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:srgbClr val="FF0000">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:srgbClr val="FF0000">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$E$2:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3241</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1047-423F-83AA-F5D4EEF5AA62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LimMax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="63500">
+                <a:srgbClr val="93FFC4">
+                  <a:alpha val="40000"/>
+                </a:srgbClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:srgbClr val="93FFC4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:srgbClr val="93FFC4">
+                    <a:alpha val="40000"/>
+                  </a:srgbClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7772</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9145</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1047-423F-83AA-F5D4EEF5AA62}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="334845600"/>
+        <c:axId val="334846560"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="334845600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334846560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="334846560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="334845600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1586,8 +2531,524 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$B$15" inc="500" max="9000" min="1000" page="10" val="3500"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$B$15" inc="500" max="9000" min="1000" page="10" val="3000"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1637,7 +3098,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>518160</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1687,7 +3148,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>510540</xdr:colOff>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1735,10 +3196,51 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123598</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63952</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>103188</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>87313</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5AAA1FB-0BC8-1A22-9078-95D6D6C14673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1776,7 +3278,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1882,7 +3384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2024,7 +3526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2034,16 +3536,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887B7B29-1A60-463F-800D-8EDCE5C96285}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="6" width="10.5546875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="1" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="5" width="10.5703125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2063,7 +3568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43831</v>
       </c>
@@ -2072,7 +3577,7 @@
       </c>
       <c r="C2" s="3">
         <f>$B$15</f>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D13" si="0">$B$16</f>
@@ -2087,7 +3592,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>43862</v>
       </c>
@@ -2096,7 +3601,7 @@
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C13" si="1">$B$15</f>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" si="0"/>
@@ -2111,7 +3616,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43891</v>
       </c>
@@ -2120,7 +3625,7 @@
       </c>
       <c r="C4" s="3">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
@@ -2135,7 +3640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>43922</v>
       </c>
@@ -2144,7 +3649,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
@@ -2159,7 +3664,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>43952</v>
       </c>
@@ -2168,22 +3673,22 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="3" t="e">
         <f t="shared" si="2"/>
-        <v>3241</v>
+        <v>#N/A</v>
       </c>
       <c r="F6" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>43983</v>
       </c>
@@ -2192,7 +3697,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
@@ -2203,11 +3708,11 @@
         <v>#N/A</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="3"/>
+        <f>IF(B7&gt;D7,B7,#N/A)</f>
         <v>8456</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>44013</v>
       </c>
@@ -2216,7 +3721,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
@@ -2231,7 +3736,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>44044</v>
       </c>
@@ -2240,7 +3745,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
@@ -2255,7 +3760,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>44075</v>
       </c>
@@ -2264,7 +3769,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
@@ -2279,7 +3784,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>44105</v>
       </c>
@@ -2288,7 +3793,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
@@ -2303,7 +3808,7 @@
         <v>9145</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>44136</v>
       </c>
@@ -2312,7 +3817,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
@@ -2327,7 +3832,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>44166</v>
       </c>
@@ -2336,7 +3841,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
@@ -2351,19 +3856,19 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="5">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
@@ -2371,83 +3876,83 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3"/>
     </row>
@@ -2465,7 +3970,7 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:colOff>514350</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -2487,7 +3992,7 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>510540</xdr:colOff>
+                    <xdr:colOff>514350</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
@@ -2506,4 +4011,344 @@
     </mc:Choice>
   </mc:AlternateContent>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CAC22C-488C-497A-9654-2C9064E334B9}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>43831</v>
+      </c>
+      <c r="B2" s="10">
+        <v>4800</v>
+      </c>
+      <c r="C2" s="3">
+        <f>$B$15</f>
+        <v>4000</v>
+      </c>
+      <c r="D2" s="3">
+        <f>$B$16</f>
+        <v>7000</v>
+      </c>
+      <c r="E2" s="11" t="e">
+        <f>IF(B2&gt;=C2, #N/A, B2)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="12" t="e">
+        <f>IF(B2 &gt;= D2, B2, #N/A)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>43862</v>
+      </c>
+      <c r="B3" s="10">
+        <v>7284</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" ref="C3:C13" si="0">$B$15</f>
+        <v>4000</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D13" si="1">$B$16</f>
+        <v>7000</v>
+      </c>
+      <c r="E3" s="11" t="e">
+        <f t="shared" ref="E3:E13" si="2">IF(B3&gt;=C3, #N/A, B3)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" ref="F3:F13" si="3">IF(B3 &gt;= D3, B3, #N/A)</f>
+        <v>7284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>43891</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1840</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="2"/>
+        <v>1840</v>
+      </c>
+      <c r="F4" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>43922</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4530</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="E5" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>43952</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3241</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="2"/>
+        <v>3241</v>
+      </c>
+      <c r="F6" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>43983</v>
+      </c>
+      <c r="B7" s="10">
+        <v>8456</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="E7" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F7" s="12">
+        <f t="shared" si="3"/>
+        <v>8456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>44013</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4114</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="E8" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F8" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>44044</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2801</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="2"/>
+        <v>2801</v>
+      </c>
+      <c r="F9" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>44075</v>
+      </c>
+      <c r="B10" s="10">
+        <v>7772</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="E10" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F10" s="12">
+        <f t="shared" si="3"/>
+        <v>7772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>44105</v>
+      </c>
+      <c r="B11" s="10">
+        <v>9145</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="E11" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F11" s="12">
+        <f t="shared" si="3"/>
+        <v>9145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>44136</v>
+      </c>
+      <c r="B12" s="10">
+        <v>3789</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="2"/>
+        <v>3789</v>
+      </c>
+      <c r="F12" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>44166</v>
+      </c>
+      <c r="B13" s="10">
+        <v>4211</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="E13" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F13" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="10">
+        <v>7000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>